--- a/MethodComparision.xlsx
+++ b/MethodComparision.xlsx
@@ -1,25 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5D6D673-3792-4AD8-B25D-225C47B63B9E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="13">
   <si>
     <t>Time</t>
   </si>
@@ -39,22 +49,31 @@
     <t>UCS</t>
   </si>
   <si>
-    <t>HeuristicL1Goal2NearestBox</t>
+    <t>BFS</t>
   </si>
   <si>
-    <t>HeuristicL2Goal2NearestBox</t>
+    <t>DFS</t>
   </si>
   <si>
-    <t>HeuristicL1CheapestGoal2Box</t>
+    <t>7200+</t>
   </si>
   <si>
-    <t>HeuristicL2CheapestGoal2Box</t>
+    <t>Goal2NearestBox</t>
+  </si>
+  <si>
+    <t>CheapestGoal2Box</t>
+  </si>
+  <si>
+    <t>L1 Norm</t>
+  </si>
+  <si>
+    <t>L2 Norm</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -84,8 +103,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -374,1102 +396,1194 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J39"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:L41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N28" sqref="N28"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="24.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="27.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="29" style="1" customWidth="1"/>
-    <col min="6" max="7" width="27.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="29" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.85546875" style="1" customWidth="1"/>
+    <col min="6" max="7" width="10.140625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.28515625" style="1" customWidth="1"/>
+    <col min="10" max="11" width="7.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3" t="s">
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3" t="s">
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B2" s="2" t="s">
+      <c r="K1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="L1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="2" t="s">
+    </row>
+    <row r="2" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I2" s="2" t="s">
+      <c r="C2" s="4"/>
+      <c r="D2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="3"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
+      <c r="G2" s="4"/>
+      <c r="H2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="C3" s="1">
+      <c r="B4" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="C4" s="1">
         <v>0.1</v>
       </c>
-      <c r="D3" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="E3" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="F3" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="G3" s="1">
+      <c r="D4" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="G4" s="1">
         <v>0.02</v>
       </c>
-      <c r="H3" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="I3" s="1">
+      <c r="H4" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="I4" s="1">
         <v>0.03</v>
       </c>
-      <c r="J3" s="1">
+      <c r="J4" s="1">
         <v>0.12</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
+      <c r="K4" s="1">
+        <v>0.16</v>
+      </c>
+      <c r="L4" s="1">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
         <v>2</v>
       </c>
-      <c r="B4" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="C4" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="D4" s="1">
+      <c r="B5" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="D5" s="1">
         <v>0</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E5" s="1">
         <v>0</v>
       </c>
-      <c r="F4" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="G4" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="H4" s="1">
+      <c r="F5" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="H5" s="1">
         <v>0</v>
       </c>
-      <c r="I4" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="J4" s="1">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
+      <c r="I5" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="J5" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="K5" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="L5" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
         <v>3</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B6" s="1">
         <v>0.05</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C6" s="1">
         <v>0.05</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D6" s="1">
         <v>0.02</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E6" s="1">
         <v>0.02</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F6" s="1">
         <v>0.05</v>
       </c>
-      <c r="G5" s="1">
+      <c r="G6" s="1">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="H5" s="1">
+      <c r="H6" s="1">
         <v>0.02</v>
       </c>
-      <c r="I5" s="1">
+      <c r="I6" s="1">
         <v>0.02</v>
       </c>
-      <c r="J5" s="1">
+      <c r="J6" s="1">
         <v>0.13</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
+      <c r="K6" s="1">
+        <v>0.26</v>
+      </c>
+      <c r="L6" s="1">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
         <v>4</v>
       </c>
-      <c r="B6" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="C6" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="D6" s="1">
+      <c r="B7" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="D7" s="1">
         <v>0</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E7" s="1">
         <v>0</v>
       </c>
-      <c r="F6" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="G6" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="H6" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="I6" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="J6" s="1">
+      <c r="F7" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="H7" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="I7" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="J7" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
+      <c r="K7" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="L7" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
         <v>5</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B8" s="1">
         <v>0.08</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C8" s="1">
         <v>0.06</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D8" s="1">
         <v>0.08</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E8" s="1">
         <v>0.13</v>
-      </c>
-      <c r="F7" s="1">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="G7" s="1">
-        <v>0.16</v>
-      </c>
-      <c r="H7" s="1">
-        <v>0.05</v>
-      </c>
-      <c r="I7" s="1">
-        <v>0.61</v>
-      </c>
-      <c r="J7" s="1">
-        <v>123.24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8" s="1">
-        <v>0.05</v>
-      </c>
-      <c r="C8" s="1">
-        <v>0.04</v>
-      </c>
-      <c r="D8" s="1">
-        <v>0.03</v>
-      </c>
-      <c r="E8" s="1">
-        <v>0.03</v>
       </c>
       <c r="F8" s="1">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="G8" s="1">
-        <v>0.09</v>
+        <v>0.16</v>
       </c>
       <c r="H8" s="1">
         <v>0.05</v>
       </c>
       <c r="I8" s="1">
-        <v>0.06</v>
+        <v>0.61</v>
       </c>
       <c r="J8" s="1">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+        <v>123.24</v>
+      </c>
+      <c r="K8" s="1">
+        <v>271.39999999999998</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B9" s="1">
-        <v>0.21</v>
+        <v>0.05</v>
       </c>
       <c r="C9" s="1">
-        <v>0.25</v>
+        <v>0.04</v>
       </c>
       <c r="D9" s="1">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="E9" s="1">
         <v>0.03</v>
       </c>
       <c r="F9" s="1">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0.09</v>
+      </c>
+      <c r="H9" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="I9" s="1">
         <v>0.06</v>
       </c>
-      <c r="G9" s="1">
+      <c r="J9" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="K9" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="L9" s="1">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>7</v>
+      </c>
+      <c r="B10" s="1">
+        <v>0.21</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0.04</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0.06</v>
+      </c>
+      <c r="G10" s="1">
         <v>0.18</v>
       </c>
-      <c r="H9" s="1">
+      <c r="H10" s="1">
         <v>0.04</v>
       </c>
-      <c r="I9" s="1">
+      <c r="I10" s="1">
         <v>0.18</v>
       </c>
-      <c r="J9" s="1">
+      <c r="J10" s="1">
         <v>0.86</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
+      <c r="K10" s="1">
+        <v>1.24</v>
+      </c>
+      <c r="L10" s="1">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
         <v>8</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B11" s="1">
         <v>0.83</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C11" s="1">
         <v>0.8</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D11" s="1">
         <v>0.62</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E11" s="1">
         <v>0.69</v>
       </c>
-      <c r="F10" s="1">
+      <c r="F11" s="1">
         <v>1.27</v>
       </c>
-      <c r="G10" s="1">
+      <c r="G11" s="1">
         <v>1.68</v>
       </c>
-      <c r="H10" s="1">
+      <c r="H11" s="1">
         <v>1.07</v>
       </c>
-      <c r="I10" s="1">
+      <c r="I11" s="1">
         <v>1.34</v>
       </c>
-      <c r="J10" s="1">
+      <c r="J11" s="1">
         <v>0.45</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
+      <c r="K11" s="1">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="L11" s="1">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
         <v>9</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B12" s="1">
         <v>0.22</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C12" s="1">
         <v>0.18</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D12" s="1">
         <v>0.15</v>
       </c>
-      <c r="E11" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="F11" s="1">
+      <c r="E12" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="F12" s="1">
         <v>0.02</v>
       </c>
-      <c r="G11" s="1">
+      <c r="G12" s="1">
         <v>0.04</v>
       </c>
-      <c r="H11" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="I11" s="1">
+      <c r="H12" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="I12" s="1">
         <v>0.02</v>
       </c>
-      <c r="J11" s="1">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
+      <c r="J12" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="K12" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="L12" s="1">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
         <v>10</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B13" s="1">
         <v>0.13</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C13" s="1">
         <v>0.1</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D13" s="1">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E13" s="1">
         <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="F12" s="1">
-        <v>0.16</v>
-      </c>
-      <c r="G12" s="1">
-        <v>0.16</v>
-      </c>
-      <c r="H12" s="1">
-        <v>0.12</v>
-      </c>
-      <c r="I12" s="1">
-        <v>0.13</v>
-      </c>
-      <c r="J12" s="1">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <v>11</v>
-      </c>
-      <c r="B13" s="1">
-        <v>0.08</v>
-      </c>
-      <c r="C13" s="1">
-        <v>0.08</v>
-      </c>
-      <c r="D13" s="1">
-        <v>0.04</v>
-      </c>
-      <c r="E13" s="1">
-        <v>0.04</v>
       </c>
       <c r="F13" s="1">
         <v>0.16</v>
       </c>
       <c r="G13" s="1">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="H13" s="1">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="I13" s="1">
-        <v>0.12</v>
+        <v>0.13</v>
       </c>
       <c r="J13" s="1">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K13" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="L13" s="1">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B14" s="1">
         <v>0.08</v>
       </c>
       <c r="C14" s="1">
-        <v>0.11</v>
+        <v>0.08</v>
       </c>
       <c r="D14" s="1">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="E14" s="1">
         <v>0.04</v>
       </c>
       <c r="F14" s="1">
-        <v>0.25</v>
+        <v>0.16</v>
       </c>
       <c r="G14" s="1">
-        <v>0.36</v>
+        <v>0.17</v>
       </c>
       <c r="H14" s="1">
         <v>0.11</v>
       </c>
       <c r="I14" s="1">
+        <v>0.12</v>
+      </c>
+      <c r="J14" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="K14" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="L14" s="1">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>12</v>
+      </c>
+      <c r="B15" s="1">
+        <v>0.08</v>
+      </c>
+      <c r="C15" s="1">
+        <v>0.11</v>
+      </c>
+      <c r="D15" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="E15" s="1">
+        <v>0.04</v>
+      </c>
+      <c r="F15" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="G15" s="1">
+        <v>0.36</v>
+      </c>
+      <c r="H15" s="1">
+        <v>0.11</v>
+      </c>
+      <c r="I15" s="1">
         <v>0.24</v>
       </c>
-      <c r="J14" s="1">
+      <c r="J15" s="1">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
+      <c r="K15" s="1">
+        <v>0.13</v>
+      </c>
+      <c r="L15" s="1">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
         <v>13</v>
       </c>
-      <c r="B15" s="1">
+      <c r="B16" s="1">
         <v>0.11</v>
       </c>
-      <c r="C15" s="1">
+      <c r="C16" s="1">
         <v>0.09</v>
       </c>
-      <c r="D15" s="1">
+      <c r="D16" s="1">
         <v>0.1</v>
       </c>
-      <c r="E15" s="1">
+      <c r="E16" s="1">
         <v>0.1</v>
       </c>
-      <c r="F15" s="1">
+      <c r="F16" s="1">
         <v>0.57999999999999996</v>
       </c>
-      <c r="G15" s="1">
+      <c r="G16" s="1">
         <v>0.89</v>
       </c>
-      <c r="H15" s="1">
+      <c r="H16" s="1">
         <v>0.35</v>
       </c>
-      <c r="I15" s="1">
+      <c r="I16" s="1">
         <v>0.68</v>
       </c>
-      <c r="J15" s="1">
+      <c r="J16" s="1">
         <v>0.46</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
+      <c r="K16" s="1">
+        <v>0.23</v>
+      </c>
+      <c r="L16" s="1">
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
         <v>14</v>
       </c>
-      <c r="B16" s="1">
+      <c r="B17" s="1">
         <v>0.79</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C17" s="1">
         <v>1.61</v>
       </c>
-      <c r="D16" s="1">
+      <c r="D17" s="1">
         <v>1.1100000000000001</v>
       </c>
-      <c r="E16" s="1">
+      <c r="E17" s="1">
         <v>2.2799999999999998</v>
       </c>
-      <c r="F16" s="1">
+      <c r="F17" s="1">
         <v>3.05</v>
       </c>
-      <c r="G16" s="1">
+      <c r="G17" s="1">
         <v>7.73</v>
       </c>
-      <c r="H16" s="1">
+      <c r="H17" s="1">
         <v>1.01</v>
       </c>
-      <c r="I16" s="1">
+      <c r="I17" s="1">
         <v>4.3099999999999996</v>
       </c>
-      <c r="J16" s="1">
+      <c r="J17" s="1">
         <v>5.92</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
+      <c r="K17" s="1">
+        <v>5.6</v>
+      </c>
+      <c r="L17" s="1">
+        <v>5.88</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
         <v>15</v>
       </c>
-      <c r="B17" s="1">
+      <c r="B18" s="1">
         <v>2.0299999999999998</v>
       </c>
-      <c r="C17" s="1">
+      <c r="C18" s="1">
         <v>1.64</v>
       </c>
-      <c r="D17" s="1">
+      <c r="D18" s="1">
         <v>1.1399999999999999</v>
       </c>
-      <c r="E17" s="1">
+      <c r="E18" s="1">
         <v>0.96</v>
       </c>
-      <c r="F17" s="1">
+      <c r="F18" s="1">
         <v>3.14</v>
       </c>
-      <c r="G17" s="1">
+      <c r="G18" s="1">
         <v>3.25</v>
       </c>
-      <c r="H17" s="1">
+      <c r="H18" s="1">
         <v>2.02</v>
       </c>
-      <c r="I17" s="1">
+      <c r="I18" s="1">
         <v>1.95</v>
       </c>
-      <c r="J17" s="1">
+      <c r="J18" s="1">
         <v>0.49</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
+      <c r="K18" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="L18" s="1">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
         <v>16</v>
       </c>
-      <c r="B18" s="1">
+      <c r="B19" s="1">
         <v>34.31</v>
       </c>
-      <c r="C18" s="1">
+      <c r="C19" s="1">
         <v>41.25</v>
       </c>
-      <c r="D18" s="1">
+      <c r="D19" s="1">
         <v>9.2799999999999994</v>
       </c>
-      <c r="E18" s="1">
+      <c r="E19" s="1">
         <v>0.73</v>
       </c>
-      <c r="F18" s="1">
+      <c r="F19" s="1">
         <v>5.56</v>
       </c>
-      <c r="G18" s="1">
+      <c r="G19" s="1">
         <v>6.86</v>
       </c>
-      <c r="H18" s="1">
+      <c r="H19" s="1">
         <v>0.96</v>
       </c>
-      <c r="I18" s="1">
+      <c r="I19" s="1">
         <v>1.6</v>
       </c>
-      <c r="J18" s="1">
+      <c r="J19" s="1">
         <v>28.12</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
+      <c r="K19" s="1">
+        <v>38.78</v>
+      </c>
+      <c r="L19" s="1">
+        <v>5093.8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B19" s="1">
-        <f>SUM(B3:B18)</f>
+      <c r="B20" s="1">
+        <f>SUM(B4:B19)</f>
         <v>39</v>
       </c>
-      <c r="C19" s="1">
-        <f t="shared" ref="C19:E19" si="0">SUM(C3:C18)</f>
+      <c r="C20" s="1">
+        <f t="shared" ref="C20:E20" si="0">SUM(C4:C19)</f>
         <v>46.38</v>
       </c>
-      <c r="D19" s="1">
+      <c r="D20" s="1">
         <f t="shared" si="0"/>
         <v>12.719999999999999</v>
       </c>
-      <c r="E19" s="1">
+      <c r="E20" s="1">
         <f t="shared" si="0"/>
         <v>5.1400000000000006</v>
       </c>
-      <c r="F19" s="1">
-        <f t="shared" ref="F19:G19" si="1">SUM(F3:F18)</f>
+      <c r="F20" s="1">
+        <f t="shared" ref="F20:G20" si="1">SUM(F4:F19)</f>
         <v>14.469999999999999</v>
       </c>
-      <c r="G19" s="2">
+      <c r="G20" s="2">
         <f t="shared" si="1"/>
         <v>21.68</v>
       </c>
-      <c r="H19" s="1">
-        <f>SUM(H3:H18)</f>
+      <c r="H20" s="1">
+        <f>SUM(H4:H19)</f>
         <v>5.94</v>
       </c>
-      <c r="I19" s="1">
-        <f t="shared" ref="I19" si="2">SUM(I3:I18)</f>
+      <c r="I20" s="1">
+        <f t="shared" ref="I20" si="2">SUM(I4:I19)</f>
         <v>11.309999999999999</v>
       </c>
-      <c r="J19" s="1">
-        <f>SUM(J3:J18)</f>
+      <c r="J20" s="1">
+        <f>SUM(J4:J19)</f>
         <v>160.04000000000002</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
+      <c r="K20" s="1">
+        <f>SUM(K4:K19)</f>
+        <v>318.58999999999992</v>
+      </c>
+      <c r="L20" s="1">
+        <f>SUM(L4:L19)</f>
+        <v>5102.22</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B22" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3" t="s">
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3" t="s">
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B22" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E22" s="2" t="s">
+    <row r="23" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F22" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H22" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I22" s="2" t="s">
+      <c r="C23" s="4"/>
+      <c r="D23" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="J22" s="3"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
+      <c r="G23" s="4"/>
+      <c r="H23" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B24" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J24" s="4"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
         <v>1</v>
       </c>
-      <c r="B23" s="2">
+      <c r="B25" s="2">
         <v>12</v>
       </c>
-      <c r="C23" s="2">
+      <c r="C25" s="2">
         <v>12</v>
-      </c>
-      <c r="D23" s="2">
-        <v>15</v>
-      </c>
-      <c r="E23" s="2">
-        <v>13</v>
-      </c>
-      <c r="F23" s="2">
-        <v>12</v>
-      </c>
-      <c r="G23" s="2">
-        <v>12</v>
-      </c>
-      <c r="H23" s="2">
-        <v>12</v>
-      </c>
-      <c r="I23" s="2">
-        <v>12</v>
-      </c>
-      <c r="J23" s="1">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
-        <v>2</v>
-      </c>
-      <c r="B24" s="2">
-        <v>9</v>
-      </c>
-      <c r="C24" s="2">
-        <v>9</v>
-      </c>
-      <c r="D24" s="2">
-        <v>9</v>
-      </c>
-      <c r="E24" s="2">
-        <v>9</v>
-      </c>
-      <c r="F24" s="2">
-        <v>9</v>
-      </c>
-      <c r="G24" s="2">
-        <v>9</v>
-      </c>
-      <c r="H24" s="2">
-        <v>9</v>
-      </c>
-      <c r="I24" s="2">
-        <v>9</v>
-      </c>
-      <c r="J24" s="1">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="1">
-        <v>3</v>
-      </c>
-      <c r="B25" s="2">
-        <v>15</v>
-      </c>
-      <c r="C25" s="2">
-        <v>15</v>
       </c>
       <c r="D25" s="2">
         <v>15</v>
       </c>
       <c r="E25" s="2">
+        <v>13</v>
+      </c>
+      <c r="F25" s="2">
+        <v>12</v>
+      </c>
+      <c r="G25" s="2">
+        <v>12</v>
+      </c>
+      <c r="H25" s="2">
+        <v>12</v>
+      </c>
+      <c r="I25" s="2">
+        <v>12</v>
+      </c>
+      <c r="J25" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>2</v>
+      </c>
+      <c r="B26" s="2">
+        <v>9</v>
+      </c>
+      <c r="C26" s="2">
+        <v>9</v>
+      </c>
+      <c r="D26" s="2">
+        <v>9</v>
+      </c>
+      <c r="E26" s="2">
+        <v>9</v>
+      </c>
+      <c r="F26" s="2">
+        <v>9</v>
+      </c>
+      <c r="G26" s="2">
+        <v>9</v>
+      </c>
+      <c r="H26" s="2">
+        <v>9</v>
+      </c>
+      <c r="I26" s="2">
+        <v>9</v>
+      </c>
+      <c r="J26" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>3</v>
+      </c>
+      <c r="B27" s="2">
         <v>15</v>
       </c>
-      <c r="F25" s="2">
+      <c r="C27" s="2">
         <v>15</v>
       </c>
-      <c r="G25" s="2">
+      <c r="D27" s="2">
         <v>15</v>
       </c>
-      <c r="H25" s="2">
+      <c r="E27" s="2">
         <v>15</v>
       </c>
-      <c r="I25" s="2">
+      <c r="F27" s="2">
         <v>15</v>
       </c>
-      <c r="J25" s="1">
+      <c r="G27" s="2">
         <v>15</v>
       </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="1">
+      <c r="H27" s="2">
+        <v>15</v>
+      </c>
+      <c r="I27" s="2">
+        <v>15</v>
+      </c>
+      <c r="J27" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
         <v>4</v>
       </c>
-      <c r="B26" s="2">
+      <c r="B28" s="2">
         <v>7</v>
       </c>
-      <c r="C26" s="2">
+      <c r="C28" s="2">
         <v>7</v>
       </c>
-      <c r="D26" s="2">
+      <c r="D28" s="2">
         <v>7</v>
       </c>
-      <c r="E26" s="2">
+      <c r="E28" s="2">
         <v>7</v>
       </c>
-      <c r="F26" s="2">
+      <c r="F28" s="2">
         <v>7</v>
       </c>
-      <c r="G26" s="2">
+      <c r="G28" s="2">
         <v>7</v>
       </c>
-      <c r="H26" s="2">
+      <c r="H28" s="2">
         <v>7</v>
       </c>
-      <c r="I26" s="2">
+      <c r="I28" s="2">
         <v>7</v>
       </c>
-      <c r="J26" s="1">
+      <c r="J28" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="1">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
         <v>5</v>
       </c>
-      <c r="B27" s="2">
+      <c r="B29" s="2">
         <v>20</v>
       </c>
-      <c r="C27" s="2">
+      <c r="C29" s="2">
         <v>20</v>
       </c>
-      <c r="D27" s="2">
+      <c r="D29" s="2">
         <v>32</v>
       </c>
-      <c r="E27" s="2">
+      <c r="E29" s="2">
         <v>40</v>
       </c>
-      <c r="F27" s="2">
+      <c r="F29" s="2">
         <v>20</v>
       </c>
-      <c r="G27" s="2">
+      <c r="G29" s="2">
         <v>20</v>
       </c>
-      <c r="H27" s="2">
+      <c r="H29" s="2">
         <v>24</v>
       </c>
-      <c r="I27" s="2">
+      <c r="I29" s="2">
         <v>22</v>
       </c>
-      <c r="J27" s="1">
+      <c r="J29" s="1">
         <v>20</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="1">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
         <v>6</v>
       </c>
-      <c r="B28" s="2">
+      <c r="B30" s="2">
         <v>19</v>
       </c>
-      <c r="C28" s="2">
+      <c r="C30" s="2">
         <v>19</v>
       </c>
-      <c r="D28" s="2">
+      <c r="D30" s="2">
         <v>19</v>
       </c>
-      <c r="E28" s="2">
+      <c r="E30" s="2">
         <v>19</v>
       </c>
-      <c r="F28" s="2">
+      <c r="F30" s="2">
         <v>19</v>
       </c>
-      <c r="G28" s="2">
+      <c r="G30" s="2">
         <v>19</v>
       </c>
-      <c r="H28" s="2">
+      <c r="H30" s="2">
         <v>19</v>
       </c>
-      <c r="I28" s="2">
+      <c r="I30" s="2">
         <v>19</v>
       </c>
-      <c r="J28" s="1">
+      <c r="J30" s="1">
         <v>19</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="1">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
         <v>7</v>
       </c>
-      <c r="B29" s="2">
+      <c r="B31" s="2">
         <v>49</v>
       </c>
-      <c r="C29" s="2">
+      <c r="C31" s="2">
         <v>41</v>
       </c>
-      <c r="D29" s="2">
+      <c r="D31" s="2">
         <v>25</v>
       </c>
-      <c r="E29" s="2">
+      <c r="E31" s="2">
         <v>29</v>
       </c>
-      <c r="F29" s="2">
+      <c r="F31" s="2">
         <v>23</v>
       </c>
-      <c r="G29" s="2">
+      <c r="G31" s="2">
         <v>21</v>
       </c>
-      <c r="H29" s="2">
+      <c r="H31" s="2">
         <v>21</v>
       </c>
-      <c r="I29" s="2">
+      <c r="I31" s="2">
         <v>21</v>
       </c>
-      <c r="J29" s="1">
+      <c r="J31" s="1">
         <v>21</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="1">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
         <v>8</v>
       </c>
-      <c r="B30" s="2">
+      <c r="B32" s="2">
         <v>101</v>
       </c>
-      <c r="C30" s="2">
+      <c r="C32" s="2">
         <v>107</v>
       </c>
-      <c r="D30" s="2">
+      <c r="D32" s="2">
         <v>115</v>
       </c>
-      <c r="E30" s="2">
+      <c r="E32" s="2">
         <v>113</v>
       </c>
-      <c r="F30" s="2">
+      <c r="F32" s="2">
         <v>97</v>
       </c>
-      <c r="G30" s="2">
+      <c r="G32" s="2">
         <v>97</v>
       </c>
-      <c r="H30" s="2">
+      <c r="H32" s="2">
         <v>99</v>
       </c>
-      <c r="I30" s="2">
+      <c r="I32" s="2">
         <v>97</v>
       </c>
-      <c r="J30" s="1">
+      <c r="J32" s="1">
         <v>97</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" s="1">
-        <v>9</v>
-      </c>
-      <c r="B31" s="2">
-        <v>8</v>
-      </c>
-      <c r="C31" s="2">
-        <v>8</v>
-      </c>
-      <c r="D31" s="2">
-        <v>8</v>
-      </c>
-      <c r="E31" s="2">
-        <v>8</v>
-      </c>
-      <c r="F31" s="2">
-        <v>8</v>
-      </c>
-      <c r="G31" s="2">
-        <v>8</v>
-      </c>
-      <c r="H31" s="2">
-        <v>8</v>
-      </c>
-      <c r="I31" s="2">
-        <v>8</v>
-      </c>
-      <c r="J31" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" s="1">
-        <v>10</v>
-      </c>
-      <c r="B32" s="2">
-        <v>33</v>
-      </c>
-      <c r="C32" s="2">
-        <v>33</v>
-      </c>
-      <c r="D32" s="2">
-        <v>33</v>
-      </c>
-      <c r="E32" s="2">
-        <v>33</v>
-      </c>
-      <c r="F32" s="2">
-        <v>33</v>
-      </c>
-      <c r="G32" s="2">
-        <v>33</v>
-      </c>
-      <c r="H32" s="2">
-        <v>33</v>
-      </c>
-      <c r="I32" s="2">
-        <v>33</v>
-      </c>
-      <c r="J32" s="1">
-        <v>33</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B33" s="2">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="C33" s="2">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="D33" s="2">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="E33" s="2">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="F33" s="2">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="G33" s="2">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="H33" s="2">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="I33" s="2">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="J33" s="1">
-        <v>34</v>
+        <v>8</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B34" s="2">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="C34" s="2">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="D34" s="2">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="E34" s="2">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="F34" s="2">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="G34" s="2">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="H34" s="2">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I34" s="2">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="J34" s="1">
-        <v>23</v>
+        <v>33</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B35" s="2">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C35" s="2">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="D35" s="2">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="E35" s="2">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="F35" s="2">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G35" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H35" s="2">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="I35" s="2">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="J35" s="1">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B36" s="2">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="C36" s="2">
-        <v>67</v>
+        <v>23</v>
       </c>
       <c r="D36" s="2">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="E36" s="2">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="F36" s="2">
         <v>23</v>
@@ -1489,118 +1603,193 @@
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B37" s="2">
-        <v>107</v>
+        <v>39</v>
       </c>
       <c r="C37" s="2">
-        <v>107</v>
+        <v>39</v>
       </c>
       <c r="D37" s="2">
-        <v>107</v>
+        <v>43</v>
       </c>
       <c r="E37" s="2">
-        <v>107</v>
+        <v>45</v>
       </c>
       <c r="F37" s="2">
-        <v>107</v>
+        <v>31</v>
       </c>
       <c r="G37" s="2">
-        <v>107</v>
+        <v>33</v>
       </c>
       <c r="H37" s="2">
-        <v>107</v>
+        <v>31</v>
       </c>
       <c r="I37" s="2">
-        <v>107</v>
+        <v>31</v>
       </c>
       <c r="J37" s="1">
-        <v>105</v>
+        <v>31</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
+        <v>14</v>
+      </c>
+      <c r="B38" s="2">
+        <v>31</v>
+      </c>
+      <c r="C38" s="2">
+        <v>67</v>
+      </c>
+      <c r="D38" s="2">
+        <v>31</v>
+      </c>
+      <c r="E38" s="2">
+        <v>41</v>
+      </c>
+      <c r="F38" s="2">
+        <v>23</v>
+      </c>
+      <c r="G38" s="2">
+        <v>23</v>
+      </c>
+      <c r="H38" s="2">
+        <v>23</v>
+      </c>
+      <c r="I38" s="2">
+        <v>23</v>
+      </c>
+      <c r="J38" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>15</v>
+      </c>
+      <c r="B39" s="2">
+        <v>107</v>
+      </c>
+      <c r="C39" s="2">
+        <v>107</v>
+      </c>
+      <c r="D39" s="2">
+        <v>107</v>
+      </c>
+      <c r="E39" s="2">
+        <v>107</v>
+      </c>
+      <c r="F39" s="2">
+        <v>107</v>
+      </c>
+      <c r="G39" s="2">
+        <v>107</v>
+      </c>
+      <c r="H39" s="2">
+        <v>107</v>
+      </c>
+      <c r="I39" s="2">
+        <v>107</v>
+      </c>
+      <c r="J39" s="1">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
         <v>16</v>
       </c>
-      <c r="B38" s="2">
+      <c r="B40" s="2">
         <v>38</v>
       </c>
-      <c r="C38" s="2">
+      <c r="C40" s="2">
         <v>38</v>
       </c>
-      <c r="D38" s="2">
+      <c r="D40" s="2">
         <v>38</v>
       </c>
-      <c r="E38" s="2">
+      <c r="E40" s="2">
         <v>38</v>
       </c>
-      <c r="F38" s="2">
+      <c r="F40" s="2">
         <v>34</v>
       </c>
-      <c r="G38" s="2">
+      <c r="G40" s="2">
         <v>34</v>
       </c>
-      <c r="H38" s="2">
+      <c r="H40" s="2">
         <v>38</v>
       </c>
-      <c r="I38" s="2">
+      <c r="I40" s="2">
         <v>38</v>
       </c>
-      <c r="J38" s="1">
+      <c r="J40" s="1">
         <v>34</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B39" s="1">
-        <f>SUM(B23:B38)</f>
+      <c r="B41" s="1">
+        <f>SUM(B25:B40)</f>
         <v>545</v>
       </c>
-      <c r="C39" s="1">
-        <f t="shared" ref="C39" si="3">SUM(C23:C38)</f>
+      <c r="C41" s="1">
+        <f t="shared" ref="C41" si="3">SUM(C25:C40)</f>
         <v>579</v>
       </c>
-      <c r="D39" s="1">
-        <f t="shared" ref="D39" si="4">SUM(D23:D38)</f>
+      <c r="D41" s="1">
+        <f t="shared" ref="D41" si="4">SUM(D25:D40)</f>
         <v>554</v>
       </c>
-      <c r="E39" s="1">
-        <f t="shared" ref="E39" si="5">SUM(E23:E38)</f>
+      <c r="E41" s="1">
+        <f t="shared" ref="E41" si="5">SUM(E25:E40)</f>
         <v>574</v>
       </c>
-      <c r="F39" s="1">
-        <f t="shared" ref="F39" si="6">SUM(F23:F38)</f>
+      <c r="F41" s="1">
+        <f t="shared" ref="F41" si="6">SUM(F25:F40)</f>
         <v>495</v>
       </c>
-      <c r="G39" s="1">
-        <f t="shared" ref="G39" si="7">SUM(G23:G38)</f>
+      <c r="G41" s="1">
+        <f t="shared" ref="G41" si="7">SUM(G25:G40)</f>
         <v>495</v>
       </c>
-      <c r="H39" s="1">
-        <f t="shared" ref="H39" si="8">SUM(H23:H38)</f>
+      <c r="H41" s="1">
+        <f t="shared" ref="H41" si="8">SUM(H25:H40)</f>
         <v>503</v>
       </c>
-      <c r="I39" s="1">
-        <f>SUM(I23:I38)</f>
+      <c r="I41" s="1">
+        <f>SUM(I25:I40)</f>
         <v>499</v>
       </c>
-      <c r="J39" s="1">
-        <f t="shared" ref="I39:J39" si="9">SUM(J23:J38)</f>
+      <c r="J41" s="1">
+        <f t="shared" ref="J41" si="9">SUM(J25:J40)</f>
         <v>491</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="16">
+    <mergeCell ref="K1:K3"/>
+    <mergeCell ref="L1:L3"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="F1:I1"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="F21:I21"/>
-    <mergeCell ref="J21:J22"/>
-    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="F22:I22"/>
+    <mergeCell ref="J22:J24"/>
+    <mergeCell ref="J1:J3"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="H23:I23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/MethodComparision.xlsx
+++ b/MethodComparision.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5D6D673-3792-4AD8-B25D-225C47B63B9E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3568D272-5B82-4C79-8F1F-78D1451B2484}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1772,6 +1772,14 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="F22:I22"/>
+    <mergeCell ref="J22:J24"/>
+    <mergeCell ref="J1:J3"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="H23:I23"/>
     <mergeCell ref="K1:K3"/>
     <mergeCell ref="L1:L3"/>
     <mergeCell ref="B2:C2"/>
@@ -1780,14 +1788,6 @@
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="F1:I1"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="F22:I22"/>
-    <mergeCell ref="J22:J24"/>
-    <mergeCell ref="J1:J3"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="H23:I23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
